--- a/api_unittest/cases/excel/平台接口测试用例.xlsx
+++ b/api_unittest/cases/excel/平台接口测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28000" windowHeight="12280" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HOME" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="FEED" sheetId="3" r:id="rId3"/>
     <sheet name="ME" sheetId="4" r:id="rId4"/>
     <sheet name="meet" sheetId="6" r:id="rId5"/>
+    <sheet name="Profile" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="230">
   <si>
     <t>用例序号</t>
   </si>
@@ -71,16 +72,669 @@
     <t>关闭弹窗</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>{'content-type': "application/x-www-form-urlencoded"}</t>
   </si>
   <si>
-    <t xml:space="preserve"> {"__t_": "68047730", "button_type": "1"}</t>
+    <t>{"__t_": "68047730", "button_type": "1"}</t>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
     <t>等于</t>
+  </si>
+  <si>
+    <t>点击赏个好评或我要吐槽</t>
+  </si>
+  <si>
+    <t>{"__t_": "68047730", "button_type": "0"}</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>iOS内测弹窗</t>
+  </si>
+  <si>
+    <t>/v3/guide/testFlightConfig</t>
+  </si>
+  <si>
+    <t>打开APP弹出内测弹窗</t>
+  </si>
+  <si>
+    <t>{"uid":"101840898","__appVersion_":"101300","__appid_":"10001"}</t>
+  </si>
+  <si>
+    <t>获取首页二楼展示位</t>
+  </si>
+  <si>
+    <t>/v3/home/getSecondFloorConfig</t>
+  </si>
+  <si>
+    <t>打开APP展示二楼</t>
+  </si>
+  <si>
+    <t>{"uid":"101840898","appId":"10001","appVersion":"101300","channelId":"1001"}</t>
+  </si>
+  <si>
+    <t>app获取七牛上传私密空间token和域名</t>
+  </si>
+  <si>
+    <t>/v3/upload/getPrivateUploadToken</t>
+  </si>
+  <si>
+    <t>正确获取七牛上传私密空间token和域名</t>
+  </si>
+  <si>
+    <t>{'__t_': '83565513'}</t>
+  </si>
+  <si>
+    <t>app首页IOS接口</t>
+  </si>
+  <si>
+    <t>/v3/home/homeData</t>
+  </si>
+  <si>
+    <t>正确获取ios首页数据</t>
+  </si>
+  <si>
+    <t>{'content-type': "application/json"}</t>
+  </si>
+  <si>
+    <t>{"__appVersion_":101203,"uid":928487754}</t>
+  </si>
+  <si>
+    <t>app首页安卓接口</t>
+  </si>
+  <si>
+    <t>/v3/home/homePage</t>
+  </si>
+  <si>
+    <t>正确获取安卓首页数据</t>
+  </si>
+  <si>
+    <t>群组</t>
+  </si>
+  <si>
+    <t>获取圈子的群导航</t>
+  </si>
+  <si>
+    <t>/v3/groupChat/queryGroupNavigation</t>
+  </si>
+  <si>
+    <t>{"groupId":"43001","uid":"71767029","groupType":0,"__t_":"71767029"}</t>
+  </si>
+  <si>
+    <t>创建群组</t>
+  </si>
+  <si>
+    <t>/v3/groupChat/createGroup</t>
+  </si>
+  <si>
+    <t>创建群组-你创建的群已达上限</t>
+  </si>
+  <si>
+    <t>{"groupName":"测试群组","uid":"42670005","__appid_":"10001","__appVersion_":"101400","__t_":"42670005"}</t>
+  </si>
+  <si>
+    <t>邀请用户入群</t>
+  </si>
+  <si>
+    <t>/api/groupChat/inviteUser</t>
+  </si>
+  <si>
+    <t>{"uid":"42670005","groupId":"43562","toUids":"[\"90032167\"]","__t_":"42670005"}</t>
+  </si>
+  <si>
+    <t>同意入群邀请</t>
+  </si>
+  <si>
+    <t>/api/groupChat/agreeInvite</t>
+  </si>
+  <si>
+    <t>{"inviteUid":"42670005","uid":"90032167","groupId":"43562","__t_":"90032167"}</t>
+  </si>
+  <si>
+    <t>退出群组</t>
+  </si>
+  <si>
+    <t>/api/groupChat/quitGroup</t>
+  </si>
+  <si>
+    <t>{"uid":"90032167","groupId":"43562","__t_":"90032167"}</t>
+  </si>
+  <si>
+    <t>获取用户的群组列表</t>
+  </si>
+  <si>
+    <t>/v3/groupChat/getGroupList</t>
+  </si>
+  <si>
+    <t>{"uid":"30531783","__t_":"30531783"}</t>
+  </si>
+  <si>
+    <t>获取指定群组信息</t>
+  </si>
+  <si>
+    <t>/v3/groupChat/getGroupInfo</t>
+  </si>
+  <si>
+    <t>{"__t_":"74106478","uid":"74106478","groupId":"43045","__appVersion_":"101400","__appid_":"10001","__skinId_":"light"}</t>
+  </si>
+  <si>
+    <t>设置管理员</t>
+  </si>
+  <si>
+    <t>/v3/groupChat/assignDuty</t>
+  </si>
+  <si>
+    <t>{"__t_":"74106478","uid":"74106478","groupId":"43045","toUid":"98539500","role":"3"}</t>
+  </si>
+  <si>
+    <t>移除管理员</t>
+  </si>
+  <si>
+    <t>{"__t_":"74106478","uid":"74106478","groupId":"43045","toUid":"98539500","role":"0"}</t>
+  </si>
+  <si>
+    <t>群内禁言</t>
+  </si>
+  <si>
+    <t>/v3/groupChat/disableChat</t>
+  </si>
+  <si>
+    <t>{"toUid": "90032167","groupId": "43045","duration": "1440","__t_":"74106478","uid": "74106478"}</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>发布文字feed</t>
+  </si>
+  <si>
+    <t>/v3/feed/publishStatus</t>
+  </si>
+  <si>
+    <t>发布文字类型feed</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{"__t_": "36731766", "status": "测1试的内容随便写写", "isPublic": 1, "tagList": ["{\"tagId\": \"1714\"}", "{\"tagId\": \"235\"}", "{\"tagId\": \"278\"}"], "atInfos": "[]", "button_type": "moment", "longitude": "116.4305212544354", "latitude": "39.93914294175165", "sceneType": "-1", "sceneParam": ""}</t>
+  </si>
+  <si>
+    <t>发布语音feed</t>
+  </si>
+  <si>
+    <t>/v3/feed/publishAudioNew</t>
+  </si>
+  <si>
+    <t>发布语音类型feed</t>
+  </si>
+  <si>
+    <t>{"__t_": "58101058", "message": "@10603哦饿了就的 无名之间123 这是测试的1", "isPublic": "1", "tagList": ["{\"tagId\": \"1714\"}", "{\"tagId\": \"235\"}", "{\"tagId\": \"278\"}"], "atInfos": ["{\"uid\": \"72115091\", \"userName\": \"10603哦饿了就的\"}"], "button_type": "moment", "longitude": "116.4305212544354", "latitude": "39.93914294175165", "sceneType": "-1", "sceneParam": "", "audioUrl": "http://pc6.dun.gsxzq.com/download/%E9%85%B7%E7%8B%97%E9%9F%B3%E4%B9%90AI%E6%8E%A8%E8%8D%90%E7%B2%BE%E7%81%B5_30@668063.exe", "audioLength": "14"}</t>
+  </si>
+  <si>
+    <t>发布多图feed</t>
+  </si>
+  <si>
+    <t>/v3/feed/publishMultiImage</t>
+  </si>
+  <si>
+    <t>发布多图类型feed</t>
+  </si>
+  <si>
+    <t>{"__t_": "58101058", "message": "@10603哦饿了就的 看看_x0008_52011145", "isPublic": "0", "tagList": ["{\"tagId\": \"1714\"}", "{\"tagId\": \"235\"}", "{\"tagId\": \"278\"}"], "atInfos": ["{\"uid\": \"72115091\", \"userName\": \"10603哦饿了就的\"}"], "button_type": "moment", "longitude": "116.4305212544354", "latitude": "39.93914294175165", "sceneType": "-1", "sceneParam": "", "urlList": "[\"https://qiniustatic.wodidashi.com/picture/E05HF1q0cF9mc\", \"https://qiniustatic.wodidashi.com/picture/l9tP4ceY319Rc\", \"https://qiniustatic.wodidashi.com/picture/8bz5r1wUZrcHx\", \"https://qiniustatic.wodidashi.com/picture/9wJ5yFe7b1cAk\", \"https://qiniustatic.wodidashi.com/picture/UI5wD3Id4i1Xu\", \"http://img1.imgtn.bdimg.com/it/u=2489492398,1961915359&amp;fm=26&amp;gp=0.jpg\"]"}</t>
+  </si>
+  <si>
+    <t>发布视频feed</t>
+  </si>
+  <si>
+    <t>/v3/feed/publishVideo</t>
+  </si>
+  <si>
+    <t>发布视频类型feed</t>
+  </si>
+  <si>
+    <t>{"__t_": "43318833", "coverUrl": "https://qiniustatic.wodidashi.com/video/FfKxx6QEKK3KE?vframe/jpg/offset/0", "videoWidth":1080 , "videoHeight": "1920","videoLength": "5", "videoUrl": "https://qiniustatic.wodidashi.com/video/FfKxx6QEKK3KE", "__screenWidth_":1170, "isPublic": "0", "msg_id": "1"}</t>
+  </si>
+  <si>
+    <t>推荐feed</t>
+  </si>
+  <si>
+    <t>/v3/feed/tag/recommendFeed</t>
+  </si>
+  <si>
+    <t>白名单推荐feed</t>
+  </si>
+  <si>
+    <t>{"__t_": "43318833","feedId":66588,"tagId":2070}</t>
+  </si>
+  <si>
+    <t>删除feed</t>
+  </si>
+  <si>
+    <t>/api/v2/feed/deleteFeed</t>
+  </si>
+  <si>
+    <t>{  "__appVersion_": "100065", "__t_": "99240237","feedOwnerId": "99240237","feedId": "69505","sourceId": "23128","sourceType": "0" }</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>搜索标签</t>
+  </si>
+  <si>
+    <t>/v3/feed/tag/search</t>
+  </si>
+  <si>
+    <t>广场处搜索标签</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"__t_": "58101058", "inputStr": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="汉仪书宋二KW"/>
+        <charset val="134"/>
+      </rPr>
+      <t>试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "searchType": "0"}</t>
+    </r>
+  </si>
+  <si>
+    <t>获取标签下最新feed</t>
+  </si>
+  <si>
+    <t>/v3/feed/tag/getLatestTagFeed</t>
+  </si>
+  <si>
+    <t>在话题详情页下拉刷新</t>
+  </si>
+  <si>
+    <t>{"__t_": "58101058", "tagId": "1714", "lastId": "0", "longitude": "0", "latitude": "0", "page": "0"}</t>
+  </si>
+  <si>
+    <t>取消关注</t>
+  </si>
+  <si>
+    <t>/v3/feed/tag/follow</t>
+  </si>
+  <si>
+    <t>取消关注标签</t>
+  </si>
+  <si>
+    <t>{"__t_": "58101058", "tagId": 278, "source": "0", "content": "0"}</t>
+  </si>
+  <si>
+    <t>关注标签</t>
+  </si>
+  <si>
+    <t>{"__t_": "58101058", "tagIds": ["1714", "235", "278"], "source": "0", "content": "0"}</t>
+  </si>
+  <si>
+    <t>关注流列表查询</t>
+  </si>
+  <si>
+    <t>/v3/feed/tag/getFollowFeeds</t>
+  </si>
+  <si>
+    <t>查看我关注的标签</t>
+  </si>
+  <si>
+    <t>{"lastId":0,"flag":0,"__t_":"36731766"}</t>
+  </si>
+  <si>
+    <t>移除feed对应的某个标签</t>
+  </si>
+  <si>
+    <t>/v3/feed/tag/removeTag</t>
+  </si>
+  <si>
+    <t>白名单移除feed带的标签</t>
+  </si>
+  <si>
+    <t>{"__t_": "87354668","feedId":66588,"tagId":2070}</t>
+  </si>
+  <si>
+    <t>获取标签详情</t>
+  </si>
+  <si>
+    <t>/v3/feed/tag/saveFeedTopStatus</t>
+  </si>
+  <si>
+    <t>{"__t_": "87354668","feedId":1177,"tagId":1177}</t>
+  </si>
+  <si>
+    <t>话题主</t>
+  </si>
+  <si>
+    <t>取消feed置顶状态</t>
+  </si>
+  <si>
+    <t>/v3/feed/tag/cancelFeedTopStatus</t>
+  </si>
+  <si>
+    <t>白名单取消对feed置顶到话题</t>
+  </si>
+  <si>
+    <t>保存feed置顶状态</t>
+  </si>
+  <si>
+    <t>白名单对feed置顶到话题</t>
+  </si>
+  <si>
+    <t>{"__t_": "87354668","feedId":1177,"tagId":1177,"feedUid":87354668}</t>
+  </si>
+  <si>
+    <t>话题主-获取对于feed的操作类型</t>
+  </si>
+  <si>
+    <t>/v3/feed/tag/getFeedOptInfo</t>
+  </si>
+  <si>
+    <t>话题主对话题下feed的更多操作</t>
+  </si>
+  <si>
+    <t>{"__t_": "87354668","feedId":13014978}</t>
+  </si>
+  <si>
+    <t>获取feed</t>
+  </si>
+  <si>
+    <t>获取朋友圈</t>
+  </si>
+  <si>
+    <t>/api/v2/feed/getFeeds</t>
+  </si>
+  <si>
+    <t>朋友圈刷新</t>
+  </si>
+  <si>
+    <t>{  "__appVersion_": "100065",  "__t_": "58101058", "isPrivate": "0", "limit": 1, "minId": 0 }</t>
+  </si>
+  <si>
+    <t>获取朋友圈feed</t>
+  </si>
+  <si>
+    <t>/api/v2/feed/getFeed</t>
+  </si>
+  <si>
+    <t>下拉刷新朋友圈</t>
+  </si>
+  <si>
+    <t>{"minId":0,"isFirstPage":"more","pageName":"moment","uid":"36731766"}</t>
+  </si>
+  <si>
+    <t>获取广场feed</t>
+  </si>
+  <si>
+    <t>/v3/feed/square/getSquareFeeds</t>
+  </si>
+  <si>
+    <t>广场刷新</t>
+  </si>
+  <si>
+    <t>{ "__t_": "80771127", "gender": "f","latitude": "39.9389692122263", "lastId": 0,"scene": 0, "position": "square", "longitude": "116.4304902203194", "misc": "square" }</t>
+  </si>
+  <si>
+    <t>个人页</t>
+  </si>
+  <si>
+    <t>查看用户个人页feed</t>
+  </si>
+  <si>
+    <t>/api/v2/feed/getUserFeeds</t>
+  </si>
+  <si>
+    <t>个人页查看feed</t>
+  </si>
+  <si>
+    <t>{"__t_":"59270815","targetUid":"36731766","minId":"0","isFirstPage":"more","pageName":"moment"}</t>
+  </si>
+  <si>
+    <t>给feed点赞</t>
+  </si>
+  <si>
+    <t>/v3/feed/upvoteFeed</t>
+  </si>
+  <si>
+    <t>对feed进行点赞操作</t>
+  </si>
+  <si>
+    <t>{'uid': '25298497', 'feedId': 835562, 'position': 'square'}</t>
+  </si>
+  <si>
+    <t>遇见</t>
+  </si>
+  <si>
+    <t>遇见主页面</t>
+  </si>
+  <si>
+    <t>/v3/meet/getMeetHome</t>
+  </si>
+  <si>
+    <t>遇见主页</t>
+  </si>
+  <si>
+    <t>{"uid":"343899800"}</t>
+  </si>
+  <si>
+    <t>获取最佳匹配</t>
+  </si>
+  <si>
+    <t>/v3/meet/getMatchTopOne</t>
+  </si>
+  <si>
+    <t>获取遇见心动的ta</t>
+  </si>
+  <si>
+    <t>/v3/meet/getChatListLbsMeetHeartbeatData</t>
+  </si>
+  <si>
+    <t>个人页头部组件数据获取</t>
+  </si>
+  <si>
+    <t>/v3/user/profile/header</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json"}</t>
+  </si>
+  <si>
+    <t>{"uid":"85727221","uidStr":"85727221","__screenWidth_":"800"}</t>
+  </si>
+  <si>
+    <t>个人页标签数据获取_最近常玩</t>
+  </si>
+  <si>
+    <t>/v3/user/profile/module</t>
+  </si>
+  <si>
+    <t>{"uid":"85727221","uidStr":"85727221","modelName":"oftenGames"}</t>
+  </si>
+  <si>
+    <t>个人页标签数据获取_语音签名</t>
+  </si>
+  <si>
+    <t>{"uid":"85727221","uidStr":"85727222","modelName":"voiceSignature"}</t>
+  </si>
+  <si>
+    <t>个人页标签数据获取_关系</t>
+  </si>
+  <si>
+    <t>{"uid":"85727221","uidStr":"85727223","modelName":"relations"}</t>
+  </si>
+  <si>
+    <t>个人页标签数据获取_房间</t>
+  </si>
+  <si>
+    <t>{"uid":"85727221","uidStr":"85727224","modelName":"room"}</t>
+  </si>
+  <si>
+    <t>个人页标签数据获取_礼物</t>
+  </si>
+  <si>
+    <t>{"uid":"85727221","uidStr":"85727225","modelName":"gifts"}</t>
+  </si>
+  <si>
+    <t>个人页标签数据获取_同类签</t>
+  </si>
+  <si>
+    <t>{"uid":"85727221","uidStr":"85727226","modelName":"sameTags"}</t>
+  </si>
+  <si>
+    <t>返回 profile 页信息</t>
+  </si>
+  <si>
+    <t>/v3/user/userProfileOrder</t>
+  </si>
+  <si>
+    <t>{"uid":"85727221","uidStr":"85727227"}</t>
+  </si>
+  <si>
+    <t>获取用户自定义信息</t>
+  </si>
+  <si>
+    <t>/v3/user/profile/custom</t>
+  </si>
+  <si>
+    <t>我页</t>
+  </si>
+  <si>
+    <t>”我“页面数据获取</t>
+  </si>
+  <si>
+    <t>/v3/user/getMyselfPage2</t>
+  </si>
+  <si>
+    <t>打卡</t>
+  </si>
+  <si>
+    <t>连续签到领取奖励（打卡页底部）</t>
+  </si>
+  <si>
+    <t>/v3/mission/award</t>
+  </si>
+  <si>
+    <t>{"uid":"85727221","constellation":"ARIES","dayNum":"2"}</t>
+  </si>
+  <si>
+    <t>获取签到记录</t>
+  </si>
+  <si>
+    <t>/v3/mission/getSignRecords</t>
+  </si>
+  <si>
+    <t>获得徽章信息</t>
+  </si>
+  <si>
+    <t>/v3/mission/honorList</t>
+  </si>
+  <si>
+    <t>{"uid":"85727221","ownerId":"890903838"}</t>
+  </si>
+  <si>
+    <t>MS:用户打卡</t>
+  </si>
+  <si>
+    <t>/task.signIn</t>
+  </si>
+  <si>
+    <t>{"uid": "890903838","et": 2,"host": "task.wb-ms.com","data": {"date": "2021-01-09","type": 1,"constellation": "CAPRICORN"}}</t>
+  </si>
+  <si>
+    <t>修改家族活跃度接口</t>
+  </si>
+  <si>
+    <t>/family/test/test</t>
+  </si>
+  <si>
+    <t>rpc服务，修改家族活跃度，host：family</t>
+  </si>
+  <si>
+    <t>{"uid":"17119057","familyId":10062,"num":1110000}</t>
+  </si>
+  <si>
+    <t>用户升级家族</t>
+  </si>
+  <si>
+    <t>/v3/family/levelUp</t>
+  </si>
+  <si>
+    <t>家族升级</t>
+  </si>
+  <si>
+    <t>{"familyId": 10136,"uid": 111741868}</t>
+  </si>
+  <si>
+    <t>用户开启家族宝箱</t>
+  </si>
+  <si>
+    <t>/v3/family/openBox</t>
+  </si>
+  <si>
+    <t>家族开启宝箱</t>
+  </si>
+  <si>
+    <t>{"uid": 111741868,"boxLevel":1,"familyId": 10136}</t>
+  </si>
+  <si>
+    <t>获取家族成员任务列表</t>
+  </si>
+  <si>
+    <t>/v3/family/getFamilyMemberTasks</t>
+  </si>
+  <si>
+    <t>{"categoryCode": "100800","uid": "111741868"}</t>
+  </si>
+  <si>
+    <t>获取家族主页信息</t>
+  </si>
+  <si>
+    <t>/v3/family/getFamilyInfo</t>
+  </si>
+  <si>
+    <t>{"familyId":10136,"entry":"game_center", "gameTypeId": 1150,"uid":111741868}</t>
+  </si>
+  <si>
+    <t>获取家族成员</t>
+  </si>
+  <si>
+    <t>/v3/family/getFamilyMemberInfoList</t>
+  </si>
+  <si>
+    <t>{"familyId": 10136,"sortBy": 77688085,"sortType": 0,"pageSize": 20,"pageNum": 17377007,"uid": 111741868}</t>
+  </si>
+  <si>
+    <t>修改家族名称</t>
+  </si>
+  <si>
+    <t>/v3/family/updateFamilyName</t>
+  </si>
+  <si>
+    <t>{"familyId": 10136,"familyName": "hahaha","uid": 111741868}</t>
   </si>
 </sst>
 </file>
@@ -88,12 +742,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +760,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -123,8 +783,21 @@
     <font>
       <u/>
       <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -135,6 +808,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF172B4D"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -142,8 +828,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,15 +874,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -180,9 +890,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,23 +906,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,27 +916,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,20 +937,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="汉仪书宋二KW"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -294,13 +979,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,25 +1009,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +1057,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +1087,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,25 +1123,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,67 +1159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,8 +1191,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +1217,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,15 +1262,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -591,191 +1285,257 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,64 +1855,427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.14285714285714" style="3"/>
-    <col min="3" max="3" width="14.9285714285714" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.1428571428571" style="3" customWidth="1"/>
-    <col min="8" max="8" width="54.7857142857143" style="3" customWidth="1"/>
-    <col min="9" max="9" width="46" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.7589285714286" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="3"/>
+    <col min="1" max="1" width="9.14166666666667" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="40.375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="36" style="12" customWidth="1"/>
+    <col min="6" max="6" width="35.75" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="54.7833333333333" style="12" customWidth="1"/>
+    <col min="9" max="9" width="79.75" style="12" customWidth="1"/>
+    <col min="10" max="11" width="9.875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="9.14166666666667" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:12">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" s="30" customFormat="1" spans="1:12">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1163,97 +2286,588 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="3"/>
+    <col min="1" max="1" width="9.14166666666667" style="17"/>
+    <col min="2" max="2" width="9.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="29" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="55.125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="64.5" style="17" customWidth="1"/>
+    <col min="10" max="12" width="9.875" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="9.14166666666667" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="16" customFormat="1" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:12">
-      <c r="A2" s="6">
+    <row r="2" ht="28.5" spans="1:12">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:12">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="27">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:12">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:12">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A7" s="15">
+        <v>7</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:12">
+      <c r="A8" s="15">
+        <v>8</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="30.75" customHeight="1" spans="1:12">
+      <c r="A9" s="15">
+        <v>9</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="30.75" customHeight="1" spans="1:12">
+      <c r="A10" s="15">
+        <v>10</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="30.75" customHeight="1" spans="1:12">
+      <c r="A11" s="15">
+        <v>11</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A12" s="15">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A13" s="15">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A14" s="15">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A15" s="15">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A16" s="15">
         <v>16</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A17" s="15">
+        <v>17</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A18" s="15">
         <v>18</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A19" s="15">
         <v>19</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D6" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D7" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D8" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D9" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D10" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D11" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1261,122 +2875,1107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="4"/>
-    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="9.14285714285714" style="4"/>
-    <col min="8" max="8" width="35.2767857142857" style="4" customWidth="1"/>
-    <col min="9" max="9" width="63.6071428571429" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="4"/>
+    <col min="1" max="1" width="8.60833333333333" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="26.8083333333333" style="18" customWidth="1"/>
+    <col min="4" max="4" width="44.3083333333333" style="18" customWidth="1"/>
+    <col min="5" max="5" width="32.775" style="18" customWidth="1"/>
+    <col min="6" max="6" width="28.8916666666667" style="18" customWidth="1"/>
+    <col min="7" max="7" width="9.14166666666667" style="19" customWidth="1"/>
+    <col min="8" max="8" width="60.8333333333333" style="18" customWidth="1"/>
+    <col min="9" max="9" width="150.558333333333" style="18" customWidth="1"/>
+    <col min="10" max="12" width="9.14166666666667" style="19"/>
+    <col min="13" max="16384" width="9.14166666666667" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="26" spans="1:12">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="18" customFormat="1" ht="28.5" spans="1:12">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="2" s="18" customFormat="1" ht="42.75" spans="1:12">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="57" spans="1:12">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="18" customFormat="1" ht="86.25" spans="1:12">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="40.85" customHeight="1" spans="1:12">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="18" customFormat="1" spans="1:12">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="18" customFormat="1" spans="1:12">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="18" customFormat="1" ht="15" spans="1:12">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="18" customFormat="1" ht="15" spans="1:12">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="18" customFormat="1" ht="15" spans="1:12">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="18" customFormat="1" ht="15" spans="1:12">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="18" customFormat="1" ht="15" spans="1:12">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="18" customFormat="1" ht="15" spans="1:12">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="18" customFormat="1" ht="15" spans="1:12">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="18" customFormat="1" ht="15" spans="1:12">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="18" customFormat="1" ht="15" spans="1:12">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="18" customFormat="1" ht="28.5" spans="1:12">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="18" customFormat="1" ht="15" spans="1:12">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="18" customFormat="1" ht="15" spans="1:12">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="18" customFormat="1" ht="28.5" spans="1:12">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="18" customFormat="1" spans="1:12">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="18" customFormat="1" spans="1:12">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="I22" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" s="18" customFormat="1" spans="1:12">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="D23" s="23"/>
+      <c r="G23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" s="18" customFormat="1" spans="1:12">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="D24" s="23"/>
+      <c r="G24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" s="18" customFormat="1" spans="1:12">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="D25" s="23"/>
+      <c r="G25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" s="18" customFormat="1" spans="1:12">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="D26" s="23"/>
+      <c r="G26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" s="18" customFormat="1" spans="1:12">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="D27" s="23"/>
+      <c r="G27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" s="18" customFormat="1" spans="1:12">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="D28" s="23"/>
+      <c r="G28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" s="18" customFormat="1" spans="1:12">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="D29" s="23"/>
+      <c r="G29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" s="18" customFormat="1" spans="1:12">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="D30" s="23"/>
+      <c r="G30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" s="18" customFormat="1" spans="1:12">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="D31" s="23"/>
+      <c r="G31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" s="18" customFormat="1" spans="1:12">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="D32" s="23"/>
+      <c r="G32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" s="18" customFormat="1" spans="1:12">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="D33" s="23"/>
+      <c r="G33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" s="18" customFormat="1" spans="1:12">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="D34" s="23"/>
+      <c r="G34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" s="18" customFormat="1" spans="1:12">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="D35" s="23"/>
+      <c r="G35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" s="18" customFormat="1" spans="1:12">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="D36" s="23"/>
+      <c r="G36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+    </row>
+    <row r="37" s="18" customFormat="1" spans="1:12">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="D37" s="23"/>
+      <c r="G37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+    </row>
+    <row r="38" s="18" customFormat="1" spans="1:12">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="D38" s="23"/>
+      <c r="G38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" s="18" customFormat="1" spans="1:12">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="D39" s="23"/>
+      <c r="G39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" s="18" customFormat="1" spans="1:12">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="D40" s="23"/>
+      <c r="G40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" s="18" customFormat="1" spans="1:12">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="D41" s="23"/>
+      <c r="G41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D8" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D9" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D10" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D11" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D14" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D17" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D18" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D19" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D20" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D15" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D16" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D13" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D21" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D12" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D6" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D7" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+    <hyperlink ref="D22" r:id="rId1" display="http://testapitest.wb-intra.com/api/test"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="3"/>
+    <col min="1" max="16384" width="9.14166666666667" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="16" customFormat="1" spans="1:12">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1387,52 +3986,178 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="2" width="9.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9" style="8" customWidth="1"/>
+    <col min="8" max="8" width="55.25" style="9" customWidth="1"/>
+    <col min="9" max="9" width="21.875" style="9" customWidth="1"/>
+    <col min="10" max="12" width="9.875" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="9"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1440,4 +4165,861 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="35.75" customWidth="1"/>
+    <col min="8" max="8" width="64.5" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1">
+        <v>23101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:11">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:11">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:11">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="8" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="8" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="9" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="9"/>
+</pixelators>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>